--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DEB4D7-3F94-45BA-BDE3-3C95909C3B3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2484687E-D587-4F72-A2BA-8B90A6219864}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
+    <workbookView xWindow="2715" yWindow="420" windowWidth="21600" windowHeight="11385" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
   <sheets>
     <sheet name="CURRENT" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="254">
   <si>
     <t>0x100000</t>
   </si>
@@ -420,9 +420,6 @@
     <t>0x10000</t>
   </si>
   <si>
-    <t>16KB</t>
-  </si>
-  <si>
     <t>0x1FFFF</t>
   </si>
   <si>
@@ -543,15 +540,6 @@
     <t>Additional LFBs (the mapping is swapped to access more than five)</t>
   </si>
   <si>
-    <t>512KB</t>
-  </si>
-  <si>
-    <t>Current CPU Mapping</t>
-  </si>
-  <si>
-    <t>CPU Specific Pages Virtual Mapping (16KB per CPU), can be anywhere physically</t>
-  </si>
-  <si>
     <t>0xC8000000</t>
   </si>
   <si>
@@ -612,9 +600,6 @@
     <t>0xC2BFFFFF</t>
   </si>
   <si>
-    <t>0x2C7FFFFF</t>
-  </si>
-  <si>
     <t>(KERNEL MODE CAN</t>
   </si>
   <si>
@@ -696,25 +681,10 @@
     <t>0xC23FFFFF</t>
   </si>
   <si>
-    <t>0xC247FFFF</t>
-  </si>
-  <si>
     <t>0xC2400000</t>
   </si>
   <si>
-    <t>0xC2480000</t>
-  </si>
-  <si>
-    <t>0xC2483FFF</t>
-  </si>
-  <si>
-    <t>0xC2484000</t>
-  </si>
-  <si>
     <t>First 4 megabytes of Physical Memory (really only safe to use bottom 2)</t>
-  </si>
-  <si>
-    <t>~3MB</t>
   </si>
   <si>
     <t>Kernel Virtual Memory Allocator</t>
@@ -804,9 +774,6 @@
     </r>
   </si>
   <si>
-    <t>ACPICA.SYS</t>
-  </si>
-  <si>
     <t>VM86 Area</t>
   </si>
   <si>
@@ -829,6 +796,12 @@
   </si>
   <si>
     <t>FIRMWARE.LIB syscalls</t>
+  </si>
+  <si>
+    <t>0xC27FFFFF</t>
+  </si>
+  <si>
+    <t>Current CPU Mapping (only first page is actually used)</t>
   </si>
 </sst>
 </file>
@@ -1242,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A83DA3-4DB8-4E58-8D97-9DC34D852838}">
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1234,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,7 +1269,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1400,7 +1373,7 @@
         <v>108</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
@@ -1430,7 +1403,7 @@
         <v>108</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>47</v>
@@ -1453,13 +1426,13 @@
         <v>123</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>14</v>
@@ -1476,7 +1449,7 @@
     </row>
     <row r="10" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>128</v>
@@ -1485,13 +1458,13 @@
         <v>119</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>50</v>
@@ -1513,13 +1486,13 @@
         <v>129</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>58</v>
@@ -1539,7 +1512,7 @@
     </row>
     <row r="12" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>38</v>
@@ -1551,10 +1524,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>58</v>
@@ -1570,21 +1543,21 @@
         <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>57</v>
@@ -1597,7 +1570,7 @@
     </row>
     <row r="14" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
@@ -1606,21 +1579,21 @@
         <v>110</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="T14" s="1"/>
     </row>
@@ -1644,11 +1617,11 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="Q15" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T15" s="1"/>
     </row>
@@ -1668,13 +1641,13 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="Q16" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -1690,7 +1663,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1698,61 +1671,61 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F21" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="J22" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="K22" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1760,13 +1733,13 @@
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1787,161 +1760,161 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F28" s="1">
         <v>0.1</v>
@@ -1962,25 +1935,25 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
@@ -2000,21 +1973,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="F30" s="1">
         <v>0.1</v>
@@ -2029,36 +2002,36 @@
         <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="F31" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -2072,60 +2045,74 @@
       <c r="K31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="F33" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -2134,37 +2121,30 @@
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="F34" s="1">
         <v>0.1</v>
@@ -2176,40 +2156,36 @@
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -2226,22 +2202,25 @@
       <c r="K35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M35" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F36" s="1">
         <v>0.1</v>
@@ -2262,27 +2241,27 @@
         <v>1</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F37" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -2299,28 +2278,25 @@
       <c r="K37" s="1">
         <v>1</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>168</v>
+        <v>239</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="F38" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -2329,239 +2305,166 @@
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H42" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H43" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="E44" s="8"/>
+      <c r="H44" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="1" t="s">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="M50" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H44" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H45" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E46" s="8"/>
-      <c r="H46" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M48" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="M52" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2580,7 +2483,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:I40 F43:I43 F23:I32">
+  <conditionalFormatting sqref="F33:I38 F41:I41 F23:I30">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2592,7 +2495,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:J40 F43:J43 F23:J32">
+  <conditionalFormatting sqref="F33:J38 F41:J41 F23:J30">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2604,7 +2507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:J43 F23:J40">
+  <conditionalFormatting sqref="F41:J41 F23:J38">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -2616,7 +2519,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:K40 K43">
+  <conditionalFormatting sqref="K23:K38 K41">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -2628,7 +2531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:I42">
+  <conditionalFormatting sqref="F40:I40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2640,7 +2543,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:J42">
+  <conditionalFormatting sqref="F40:J40">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2652,7 +2555,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:J42">
+  <conditionalFormatting sqref="F40:J40">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2664,7 +2567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
+  <conditionalFormatting sqref="K40">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2938,7 +2841,7 @@
         <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>14</v>

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2484687E-D587-4F72-A2BA-8B90A6219864}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F99C66-9923-454D-91FE-DAD836E1D62A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="420" windowWidth="21600" windowHeight="11385" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
   <sheets>
     <sheet name="CURRENT" sheetId="4" r:id="rId1"/>
@@ -684,9 +684,6 @@
     <t>0xC2400000</t>
   </si>
   <si>
-    <t>First 4 megabytes of Physical Memory (really only safe to use bottom 2)</t>
-  </si>
-  <si>
     <t>Kernel Virtual Memory Allocator</t>
   </si>
   <si>
@@ -802,6 +799,9 @@
   </si>
   <si>
     <t>Current CPU Mapping (only first page is actually used)</t>
+  </si>
+  <si>
+    <t>First 4 megabytes of Physical Memory (only safe to use bottom 2)</t>
   </si>
 </sst>
 </file>
@@ -1217,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A83DA3-4DB8-4E58-8D97-9DC34D852838}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1269,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1403,7 +1403,7 @@
         <v>108</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>47</v>
@@ -1432,7 +1432,7 @@
         <v>208</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>14</v>
@@ -1461,10 +1461,10 @@
         <v>209</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>50</v>
@@ -1492,7 +1492,7 @@
         <v>109</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>58</v>
@@ -1524,10 +1524,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>58</v>
@@ -1543,21 +1543,21 @@
         <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>57</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="14" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
@@ -1579,14 +1579,14 @@
         <v>110</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>200</v>
@@ -1674,7 +1674,7 @@
         <v>135</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1760,14 +1760,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1809,7 +1809,7 @@
         <v>147</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -1900,21 +1900,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F28" s="1">
         <v>0.1</v>
@@ -1938,21 +1938,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>217</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>214</v>
@@ -1987,7 +1987,7 @@
         <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F30" s="1">
         <v>0.1</v>
@@ -2284,16 +2284,16 @@
         <v>170</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2316,24 +2316,24 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>132</v>
@@ -2342,10 +2342,10 @@
         <v>214</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -2366,14 +2366,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2429,7 +2429,7 @@
     </row>
     <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>173</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>174</v>
@@ -2445,12 +2445,12 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E50" s="8"/>
       <c r="M50" s="1" t="s">
@@ -2459,12 +2459,12 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F99C66-9923-454D-91FE-DAD836E1D62A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F96732F-FF73-4848-9A52-F100E8A0356B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
+    <workbookView xWindow="2715" yWindow="420" windowWidth="21600" windowHeight="11385" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
   <sheets>
     <sheet name="CURRENT" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="255">
   <si>
     <t>0x100000</t>
   </si>
@@ -802,6 +802,9 @@
   </si>
   <si>
     <t>First 4 megabytes of Physical Memory (only safe to use bottom 2)</t>
+  </si>
+  <si>
+    <t>EBDA (if memory map allows, the bottom segment gets reclaimed)</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1221,7 @@
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,7 +1612,7 @@
         <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F96732F-FF73-4848-9A52-F100E8A0356B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F7A1EF-94D9-4C13-9921-A8EE62B53770}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="420" windowWidth="21600" windowHeight="11385" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
   <sheets>
     <sheet name="CURRENT" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="261">
   <si>
     <t>0x100000</t>
   </si>
@@ -771,9 +771,6 @@
     </r>
   </si>
   <si>
-    <t>VM86 Area</t>
-  </si>
-  <si>
     <t>New boot stuff</t>
   </si>
   <si>
@@ -805,6 +802,27 @@
   </si>
   <si>
     <t>EBDA (if memory map allows, the bottom segment gets reclaimed)</t>
+  </si>
+  <si>
+    <t>VM86 Area / Tramp</t>
+  </si>
+  <si>
+    <t>VM86 Area+B6:E6</t>
+  </si>
+  <si>
+    <t>TRAMPOLINE DATA</t>
+  </si>
+  <si>
+    <t>0xFF0</t>
+  </si>
+  <si>
+    <t>GDT Addr</t>
+  </si>
+  <si>
+    <t>IDT Addr</t>
+  </si>
+  <si>
+    <t>0xFF8</t>
   </si>
 </sst>
 </file>
@@ -1220,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A83DA3-4DB8-4E58-8D97-9DC34D852838}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1290,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1322,7 +1340,7 @@
         <v>107</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>42</v>
@@ -1406,7 +1424,7 @@
         <v>108</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>47</v>
@@ -1464,10 +1482,10 @@
         <v>209</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>50</v>
@@ -1527,10 +1545,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>58</v>
@@ -1556,11 +1574,11 @@
         <v>218</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>57</v>
@@ -1589,7 +1607,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>200</v>
@@ -1612,7 +1630,7 @@
         <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1628,7 +1646,7 @@
       </c>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>100</v>
       </c>
@@ -1640,6 +1658,9 @@
       </c>
       <c r="E16" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1663,6 +1684,12 @@
       <c r="E17" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
@@ -1678,6 +1705,12 @@
       </c>
       <c r="E18" s="1" t="s">
         <v>242</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1955,7 +1988,7 @@
         <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -1981,7 +2014,7 @@
         <v>217</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>214</v>
@@ -1990,7 +2023,7 @@
         <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F30" s="1">
         <v>0.1</v>

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F7A1EF-94D9-4C13-9921-A8EE62B53770}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F951883-FEA1-49C4-A084-CFC4A2224504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="263">
   <si>
     <t>0x100000</t>
   </si>
@@ -822,7 +822,13 @@
     <t>IDT Addr</t>
   </si>
   <si>
-    <t>0xFF8</t>
+    <t>0xFE0</t>
+  </si>
+  <si>
+    <t>0xFE8</t>
+  </si>
+  <si>
+    <t>CR3 Addr</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1245,7 @@
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1691,7 @@
         <v>99</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>258</v>
@@ -1707,7 +1713,7 @@
         <v>242</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>259</v>
@@ -1719,6 +1725,12 @@
       </c>
       <c r="E19" s="1" t="s">
         <v>197</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F951883-FEA1-49C4-A084-CFC4A2224504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8513CBAB-63C1-4214-8381-7510FF115654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
@@ -807,9 +807,6 @@
     <t>VM86 Area / Tramp</t>
   </si>
   <si>
-    <t>VM86 Area+B6:E6</t>
-  </si>
-  <si>
     <t>TRAMPOLINE DATA</t>
   </si>
   <si>
@@ -829,6 +826,9 @@
   </si>
   <si>
     <t>CR3 Addr</t>
+  </si>
+  <si>
+    <t>VM86 Area</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1346,7 @@
         <v>107</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>42</v>
@@ -1666,7 +1666,7 @@
         <v>102</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1691,10 +1691,10 @@
         <v>99</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1713,10 +1713,10 @@
         <v>242</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1727,10 +1727,10 @@
         <v>197</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8513CBAB-63C1-4214-8381-7510FF115654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E780D51-82BA-46C6-9E9C-C7AF5291EE32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E780D51-82BA-46C6-9E9C-C7AF5291EE32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED97C1B-59EA-45A3-8134-7E27084006F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED97C1B-59EA-45A3-8134-7E27084006F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2A56D7-B5C6-4AF1-9C40-6777D073D8D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="269">
   <si>
     <t>0x100000</t>
   </si>
@@ -829,6 +829,24 @@
   </si>
   <si>
     <t>VM86 Area</t>
+  </si>
+  <si>
+    <t>BOOT DATA</t>
+  </si>
+  <si>
+    <t>RAM table</t>
+  </si>
+  <si>
+    <t>0xC5F</t>
+  </si>
+  <si>
+    <t>PCI BIOS detection</t>
+  </si>
+  <si>
+    <t>0x500-0x507</t>
+  </si>
+  <si>
+    <t>Boot settings</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1263,7 @@
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1686,9 @@
       <c r="G16" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="9" t="s">
+        <v>263</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="Q16" s="1" t="s">
         <v>203</v>
@@ -1696,8 +1716,13 @@
       <c r="H17" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="K17" s="5"/>
+      <c r="L17" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -1717,6 +1742,12 @@
       </c>
       <c r="H18" s="1" t="s">
         <v>258</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1732,10 +1763,22 @@
       <c r="H19" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>198</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2A56D7-B5C6-4AF1-9C40-6777D073D8D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470B274-1415-494A-B3E1-D0FF3EDD2D14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
+    <workbookView xWindow="13365" yWindow="1305" windowWidth="14640" windowHeight="13290" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
   <sheets>
     <sheet name="CURRENT" sheetId="4" r:id="rId1"/>
@@ -714,9 +714,6 @@
     <t>Initial Kernel Stacks (512KB reserved per CPU, only 16KB allocated)</t>
   </si>
   <si>
-    <t>Fixed page tables</t>
-  </si>
-  <si>
     <t>More DMA Memory</t>
   </si>
   <si>
@@ -847,6 +844,9 @@
   </si>
   <si>
     <t>Boot settings</t>
+  </si>
+  <si>
+    <t>Fixed page tables (first 2, the remainder is freely usable and does get used now)</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1263,7 @@
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1314,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1364,7 +1364,7 @@
         <v>107</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>42</v>
@@ -1448,7 +1448,7 @@
         <v>108</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>47</v>
@@ -1477,7 +1477,7 @@
         <v>208</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>14</v>
@@ -1506,10 +1506,10 @@
         <v>209</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>50</v>
@@ -1537,7 +1537,7 @@
         <v>109</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>58</v>
@@ -1569,10 +1569,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>58</v>
@@ -1598,11 +1598,11 @@
         <v>218</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>57</v>
@@ -1624,14 +1624,14 @@
         <v>110</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>200</v>
@@ -1654,7 +1654,7 @@
         <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1684,10 +1684,10 @@
         <v>102</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K16" s="3"/>
       <c r="Q16" s="1" t="s">
@@ -1711,17 +1711,17 @@
         <v>99</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
@@ -1735,13 +1735,13 @@
         <v>135</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>44</v>
@@ -1758,16 +1758,16 @@
         <v>197</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1775,10 +1775,10 @@
         <v>198</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1900,7 +1900,7 @@
         <v>147</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -2069,7 +2069,7 @@
         <v>217</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>214</v>
@@ -2078,7 +2078,7 @@
         <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F30" s="1">
         <v>0.1</v>
@@ -2375,16 +2375,16 @@
         <v>170</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2407,24 +2407,24 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>132</v>
@@ -2433,10 +2433,10 @@
         <v>214</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470B274-1415-494A-B3E1-D0FF3EDD2D14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844EA14-4C5E-4AF8-8562-B8ABBE046846}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13365" yWindow="1305" windowWidth="14640" windowHeight="13290" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="272">
   <si>
     <t>0x100000</t>
   </si>
@@ -654,9 +654,6 @@
     <t>0x8000</t>
   </si>
   <si>
-    <t>20KB</t>
-  </si>
-  <si>
     <t>Kernel Boot Stack</t>
   </si>
   <si>
@@ -712,6 +709,9 @@
   </si>
   <si>
     <t>Initial Kernel Stacks (512KB reserved per CPU, only 16KB allocated)</t>
+  </si>
+  <si>
+    <t>Fixed page tables</t>
   </si>
   <si>
     <t>More DMA Memory</t>
@@ -846,7 +846,16 @@
     <t>Boot settings</t>
   </si>
   <si>
-    <t>Fixed page tables (first 2, the remainder is freely usable and does get used now)</t>
+    <t>0x5000</t>
+  </si>
+  <si>
+    <t>0x4FFF</t>
+  </si>
+  <si>
+    <t>8KB</t>
+  </si>
+  <si>
+    <t>12KB</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A83DA3-4DB8-4E58-8D97-9DC34D852838}">
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,13 +1480,13 @@
         <v>123</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>14</v>
@@ -1494,483 +1503,462 @@
     </row>
     <row r="10" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>59</v>
+        <v>271</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T11" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>248</v>
+        <v>229</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>218</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H13" s="5"/>
+        <v>247</v>
+      </c>
       <c r="I13" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>243</v>
+      <c r="E14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+    <row r="15" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G15" s="1"/>
+      <c r="E15" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="I15" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="Q15" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>262</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="Q16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="Q17" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="1" t="s">
+      <c r="K18" s="5"/>
+      <c r="L18" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E20" s="1" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F21" s="13" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F22" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="C23" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I23" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J23" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K23" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="D25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -1979,109 +1967,109 @@
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>213</v>
+        <v>150</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="1">
         <v>0.1</v>
       </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F30" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -2093,30 +2081,27 @@
         <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="F31" s="1">
         <v>0.1</v>
@@ -2136,23 +2121,19 @@
       <c r="K31" s="1">
         <v>0</v>
       </c>
-      <c r="M31" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>136</v>
@@ -2179,66 +2160,73 @@
         <v>0</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -2255,25 +2243,22 @@
       <c r="K34" s="1">
         <v>1</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F35" s="1">
         <v>0.1</v>
@@ -2297,21 +2282,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F36" s="1">
         <v>0.1</v>
@@ -2335,234 +2320,272 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C42" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H42" s="12" t="s">
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H43" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H43" s="12" t="s">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H44" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E44" s="8"/>
-      <c r="H44" s="12" t="s">
+    <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="E45" s="8"/>
+      <c r="H45" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M46" s="1" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M47" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="M47" s="1" t="s">
+    <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="M50" s="1" t="s">
+      <c r="E51" s="8"/>
+      <c r="M51" s="1" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="J24">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2574,7 +2597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:I38 F41:I41 F23:I30">
+  <conditionalFormatting sqref="F34:I39 F42:I42 F24:I31">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2586,7 +2609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:J38 F41:J41 F23:J30">
+  <conditionalFormatting sqref="F34:J39 F42:J42 F24:J31">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2598,7 +2621,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:J41 F23:J38">
+  <conditionalFormatting sqref="F42:J42 F24:J39">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -2610,7 +2633,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:K38 K41">
+  <conditionalFormatting sqref="K24:K39 K42">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -2622,7 +2645,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40:I40">
+  <conditionalFormatting sqref="F41:I41">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2634,7 +2657,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40:J40">
+  <conditionalFormatting sqref="F41:J41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2646,7 +2669,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40:J40">
+  <conditionalFormatting sqref="F41:J41">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2658,7 +2681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
+  <conditionalFormatting sqref="K41">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844EA14-4C5E-4AF8-8562-B8ABBE046846}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E8947E-C589-418D-836E-3CEAA568AB1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13365" yWindow="1305" windowWidth="14640" windowHeight="13290" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="271">
   <si>
     <t>0x100000</t>
   </si>
@@ -715,9 +715,6 @@
   </si>
   <si>
     <t>More DMA Memory</t>
-  </si>
-  <si>
-    <t>DMA Memory</t>
   </si>
   <si>
     <t>App Stacks (2MB reserved per thread, only 8KB* allocated, SEE NOTE 1)</t>
@@ -1271,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A83DA3-4DB8-4E58-8D97-9DC34D852838}">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1320,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1373,7 +1370,7 @@
         <v>107</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>42</v>
@@ -1457,7 +1454,7 @@
         <v>108</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>47</v>
@@ -1480,10 +1477,10 @@
         <v>123</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>227</v>
@@ -1503,13 +1500,13 @@
     </row>
     <row r="10" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
@@ -1529,10 +1526,10 @@
         <v>208</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>50</v>
@@ -1560,7 +1557,7 @@
         <v>109</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>58</v>
@@ -1592,10 +1589,10 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>58</v>
@@ -1621,11 +1618,11 @@
         <v>217</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>57</v>
@@ -1654,7 +1651,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>200</v>
@@ -1677,7 +1674,7 @@
         <v>110</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1707,10 +1704,10 @@
         <v>102</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K17" s="3"/>
       <c r="Q17" s="1" t="s">
@@ -1734,17 +1731,17 @@
         <v>99</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
@@ -1758,13 +1755,13 @@
         <v>135</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>44</v>
@@ -1781,16 +1778,16 @@
         <v>197</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1798,10 +1795,10 @@
         <v>198</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1923,7 +1920,7 @@
         <v>147</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -2066,7 +2063,7 @@
         <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -2092,7 +2089,7 @@
         <v>216</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>213</v>
@@ -2101,7 +2098,7 @@
         <v>136</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F31" s="1">
         <v>0.1</v>
@@ -2398,16 +2395,16 @@
         <v>170</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -2430,24 +2427,24 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>132</v>
@@ -2456,10 +2453,10 @@
         <v>213</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E8947E-C589-418D-836E-3CEAA568AB1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD5232B-62B0-4FCC-BAEE-5B1C438D7722}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13365" yWindow="1305" windowWidth="14640" windowHeight="13290" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
   <sheets>
     <sheet name="CURRENT" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="249">
   <si>
     <t>0x100000</t>
   </si>
@@ -501,45 +501,9 @@
     <t>0xC3000000</t>
   </si>
   <si>
-    <t>0xC3FFFFFF</t>
-  </si>
-  <si>
     <t>0xC7FFFFFF</t>
   </si>
   <si>
-    <t>First LFB</t>
-  </si>
-  <si>
-    <t>Second LFB</t>
-  </si>
-  <si>
-    <t>0xC4FFFFFF</t>
-  </si>
-  <si>
-    <t>0xC5000000</t>
-  </si>
-  <si>
-    <t>0xC5FFFFFF</t>
-  </si>
-  <si>
-    <t>Third LFB</t>
-  </si>
-  <si>
-    <t>0xC6000000</t>
-  </si>
-  <si>
-    <t>0xC6FFFFFF</t>
-  </si>
-  <si>
-    <t>Fourth LFB</t>
-  </si>
-  <si>
-    <t>0xC7000000</t>
-  </si>
-  <si>
-    <t>Additional LFBs (the mapping is swapped to access more than five)</t>
-  </si>
-  <si>
     <t>0xC8000000</t>
   </si>
   <si>
@@ -558,36 +522,12 @@
     <t>From that point onward, it is a heap</t>
   </si>
   <si>
-    <t>PRSNT</t>
-  </si>
-  <si>
-    <t>USER</t>
-  </si>
-  <si>
-    <t>WRITE</t>
-  </si>
-  <si>
-    <t>FLAGS</t>
-  </si>
-  <si>
-    <t>W.COMB</t>
-  </si>
-  <si>
-    <t>GLOBAL</t>
-  </si>
-  <si>
     <t>Only this CPU's stack present</t>
   </si>
   <si>
     <t>Only CPUs that exist are present</t>
   </si>
   <si>
-    <t>If exists</t>
-  </si>
-  <si>
-    <t>0xC4000000</t>
-  </si>
-  <si>
     <t>0xC2C00000</t>
   </si>
   <si>
@@ -600,24 +540,12 @@
     <t>0xC2BFFFFF</t>
   </si>
   <si>
-    <t>(KERNEL MODE CAN</t>
-  </si>
-  <si>
-    <t>STILL WRITE TO ALL</t>
-  </si>
-  <si>
-    <t>PAGES).</t>
-  </si>
-  <si>
     <t>(Not 4MB page, because it will either</t>
   </si>
   <si>
     <t xml:space="preserve"> be not present or point somewhere weird)</t>
   </si>
   <si>
-    <t>USE 4MB PAGES IF AVAILABLE</t>
-  </si>
-  <si>
     <t>Physical Memory Allocator, and Stage 2 Bootloader</t>
   </si>
   <si>
@@ -714,7 +642,7 @@
     <t>Fixed page tables</t>
   </si>
   <si>
-    <t>More DMA Memory</t>
+    <t>DMA Memory</t>
   </si>
   <si>
     <t>App Stacks (2MB reserved per thread, only 8KB* allocated, SEE NOTE 1)</t>
@@ -742,9 +670,6 @@
   </si>
   <si>
     <t>512MB</t>
-  </si>
-  <si>
-    <t>Reserved on low memory systems, else virtual kernel heap</t>
   </si>
   <si>
     <t>252MB</t>
@@ -853,6 +778,15 @@
   </si>
   <si>
     <t>12KB</t>
+  </si>
+  <si>
+    <t>0x3FFFFFFF</t>
+  </si>
+  <si>
+    <t>0x40000000</t>
+  </si>
+  <si>
+    <t>Unmapped on low memory systems</t>
   </si>
 </sst>
 </file>
@@ -1268,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A83DA3-4DB8-4E58-8D97-9DC34D852838}">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1254,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1370,7 +1304,7 @@
         <v>107</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>42</v>
@@ -1424,7 +1358,7 @@
         <v>108</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
@@ -1454,7 +1388,7 @@
         <v>108</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>47</v>
@@ -1477,13 +1411,13 @@
         <v>123</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>14</v>
@@ -1500,13 +1434,13 @@
     </row>
     <row r="10" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
@@ -1514,7 +1448,7 @@
     </row>
     <row r="11" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>128</v>
@@ -1523,13 +1457,13 @@
         <v>119</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>50</v>
@@ -1557,7 +1491,7 @@
         <v>109</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>58</v>
@@ -1589,10 +1523,10 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>58</v>
@@ -1608,21 +1542,21 @@
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="3" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>57</v>
@@ -1635,7 +1569,7 @@
     </row>
     <row r="15" spans="1:25" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
@@ -1643,22 +1577,22 @@
       <c r="D15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>228</v>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="T15" s="1"/>
     </row>
@@ -1674,7 +1608,7 @@
         <v>110</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1682,11 +1616,11 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="Q16" s="1" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="T16" s="1"/>
     </row>
@@ -1704,17 +1638,17 @@
         <v>102</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="K17" s="3"/>
       <c r="Q17" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -1731,17 +1665,17 @@
         <v>99</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
@@ -1755,13 +1689,13 @@
         <v>135</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>44</v>
@@ -1775,36 +1709,34 @@
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F22" s="13" t="s">
-        <v>179</v>
-      </c>
+      <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -1815,26 +1747,14 @@
         <v>137</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>195</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1844,31 +1764,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
@@ -1879,31 +1781,13 @@
         <v>143</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -1914,31 +1798,13 @@
         <v>148</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>147</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -1946,10 +1812,10 @@
         <v>146</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>142</v>
@@ -1957,207 +1823,93 @@
       <c r="E27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>212</v>
+      <c r="C29" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
@@ -2166,40 +1918,22 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
@@ -2208,374 +1942,158 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1">
-        <v>1</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>184</v>
+      <c r="E37" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>213</v>
+        <v>36</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
+      <c r="E39" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H43" s="12" t="s">
-        <v>190</v>
-      </c>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H44" s="12" t="s">
-        <v>191</v>
-      </c>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="E45" s="8"/>
-      <c r="H45" s="12" t="s">
-        <v>192</v>
-      </c>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M47" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E51" s="8"/>
       <c r="M51" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2952,7 +2470,7 @@
         <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>14</v>

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD5232B-62B0-4FCC-BAEE-5B1C438D7722}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62016CB8-DDE1-49DB-8DD4-B9648969A42E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
+    <workbookView xWindow="-150" yWindow="1320" windowWidth="15360" windowHeight="12315" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
   <sheets>
     <sheet name="CURRENT" sheetId="4" r:id="rId1"/>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A83DA3-4DB8-4E58-8D97-9DC34D852838}">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/New Memory Map.xlsx
+++ b/New Memory Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alex\Desktop\Banana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Banana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62016CB8-DDE1-49DB-8DD4-B9648969A42E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE17E6A-7240-4D9F-9597-EA6BF617628A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="1320" windowWidth="15360" windowHeight="12315" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A4490B2F-6D44-4AF8-A05C-8C7F2D08F028}"/>
   </bookViews>
   <sheets>
     <sheet name="CURRENT" sheetId="4" r:id="rId1"/>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
